--- a/outputs-r202/test-p__Firmicutes.xlsx
+++ b/outputs-r202/test-p__Firmicutes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="70">
   <si>
     <t>Row</t>
   </si>
@@ -244,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -254,14 +254,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -282,144 +286,144 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.8912993221540089e-09</v>
+        <v>8.2221277661771506e-14</v>
       </c>
       <c r="C2">
-        <v>0.99999999710867848</v>
+        <v>0.99999999999989564</v>
       </c>
       <c r="D2">
-        <v>2.2204460471165756e-14</v>
+        <v>2.2204460492502361e-14</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1.813426225474671e-09</v>
+        <v>5.7705998515954529e-08</v>
       </c>
       <c r="C3">
-        <v>0.99999999818655161</v>
+        <v>0.99999994229397926</v>
       </c>
       <c r="D3">
-        <v>2.2204460479080757e-14</v>
+        <v>2.2204473966458296e-14</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2.1633150966315929e-08</v>
+        <v>6.2940158980950468e-08</v>
       </c>
       <c r="C4">
-        <v>0.99999997836682686</v>
+        <v>0.99999993705981882</v>
       </c>
       <c r="D4">
-        <v>2.2204462904113579e-14</v>
+        <v>2.220449747640342e-14</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>3.1455396858744342e-08</v>
+        <v>5.3467579389081217e-07</v>
       </c>
       <c r="C5">
-        <v>0.99999996854458095</v>
+        <v>0.99999946532418393</v>
       </c>
       <c r="D5">
-        <v>2.2204464573102866e-14</v>
+        <v>2.2204567095956227e-14</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>3.7781010633204923e-07</v>
+        <v>2.2536884824279529e-07</v>
       </c>
       <c r="C6">
-        <v>0.99999962218987148</v>
+        <v>0.99999977463112943</v>
       </c>
       <c r="D6">
-        <v>2.2204490592015849e-14</v>
+        <v>2.2204458826405388e-14</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>6.8864097111032303e-08</v>
+        <v>5.6956838334751697e-07</v>
       </c>
       <c r="C7">
-        <v>0.9999999311358807</v>
+        <v>0.99999943043159445</v>
       </c>
       <c r="D7">
-        <v>2.2204459983228506e-14</v>
+        <v>2.2205324687304451e-14</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>3.9856305169970358e-07</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.99999960143692612</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2.2204869170563463e-14</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -435,8 +439,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -452,8 +456,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -469,663 +473,663 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>2.2204460492502607e-14</v>
+        <v>3.6197914679215957e-08</v>
       </c>
       <c r="C12">
-        <v>0.9999999999999557</v>
+        <v>0.99999996380206302</v>
       </c>
       <c r="D12">
-        <v>2.2204460492502607e-14</v>
+        <v>2.2204465525214563e-14</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>8.5466550663836247e-06</v>
+        <v>2.1118571614116487e-13</v>
       </c>
       <c r="C13">
-        <v>0.99999145334491135</v>
+        <v>0.99999999999976663</v>
       </c>
       <c r="D13">
-        <v>2.2204426374789874e-14</v>
+        <v>2.2204460492517573e-14</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>2.4236786205554642e-11</v>
+        <v>2.5080271505386164e-05</v>
       </c>
       <c r="C14">
-        <v>0.99999999997574107</v>
+        <v>0.99997491972847241</v>
       </c>
       <c r="D14">
-        <v>2.2204460492330667e-14</v>
+        <v>2.2204274877604084e-14</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>1.8328673881613775e-08</v>
+        <v>2.2204460492502588e-14</v>
       </c>
       <c r="C15">
-        <v>0.99999998167130399</v>
+        <v>0.99999999999995548</v>
       </c>
       <c r="D15">
-        <v>2.2204460415375913e-14</v>
+        <v>2.2204460492502588e-14</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.00030030448206333932</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.99939939103587561</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0.00030030448206096422</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>4.4825176689342164e-06</v>
+        <v>4.0327147570082469e-14</v>
       </c>
       <c r="C17">
-        <v>0.99999551748230875</v>
+        <v>0.99999999999993749</v>
       </c>
       <c r="D17">
-        <v>2.2204427315749735e-14</v>
+        <v>2.2204460492506791e-14</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>1.6131793231708204e-09</v>
+        <v>3.3752900786081389e-08</v>
       </c>
       <c r="C18">
-        <v>0.99999999838679854</v>
+        <v>0.99999996624707699</v>
       </c>
       <c r="D18">
-        <v>2.2204460482891485e-14</v>
+        <v>2.2204461818961279e-14</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>2.2204460492502588e-14</v>
+        <v>3.4587265586583384e-08</v>
       </c>
       <c r="C19">
-        <v>0.9999999999999557</v>
+        <v>0.99999996541271219</v>
       </c>
       <c r="D19">
-        <v>2.2204460492502588e-14</v>
+        <v>2.2204464590191379e-14</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.756552487221319e-08</v>
       </c>
       <c r="C20">
+        <v>0.99999995243445294</v>
+      </c>
+      <c r="D20">
+        <v>2.2204475879389461e-14</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>4.7773414067603734e-10</v>
+      </c>
+      <c r="C21">
+        <v>0.99999999952224361</v>
+      </c>
+      <c r="D21">
+        <v>2.2204461339493082e-14</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>2.7715713507576679e-05</v>
+      </c>
+      <c r="C22">
+        <v>0.99997228428647011</v>
+      </c>
+      <c r="D22">
+        <v>2.2204284579000685e-14</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1.2479843913303235e-09</v>
+      </c>
+      <c r="C23">
+        <v>0.99999999875199341</v>
+      </c>
+      <c r="D23">
+        <v>2.2204460484428843e-14</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2.015758707333723e-06</v>
+      </c>
+      <c r="C24">
+        <v>0.99999798424127051</v>
+      </c>
+      <c r="D24">
+        <v>2.2204446995523347e-14</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>2.4487947524028444e-06</v>
+      </c>
+      <c r="C25">
+        <v>0.99999755120522549</v>
+      </c>
+      <c r="D25">
+        <v>2.2204447904811676e-14</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <v>3.2804186878466646e-07</v>
+      </c>
+      <c r="C26">
+        <v>0.99999967195810902</v>
+      </c>
+      <c r="D26">
+        <v>2.2204458342705554e-14</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2.2204460492503939e-14</v>
-      </c>
-      <c r="C21">
-        <v>0.99999999999995548</v>
-      </c>
-      <c r="D21">
-        <v>2.2204460492503491e-14</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>1.8156770050109847e-07</v>
-      </c>
-      <c r="C22">
-        <v>0.99999981843227737</v>
-      </c>
-      <c r="D22">
-        <v>2.2204469758963717e-14</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>5.6458546399086002e-08</v>
-      </c>
-      <c r="C23">
-        <v>0.9999999435414314</v>
-      </c>
-      <c r="D23">
-        <v>2.2204460423105765e-14</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2.5131777149227159e-08</v>
-      </c>
-      <c r="C24">
-        <v>0.99999997486820069</v>
-      </c>
-      <c r="D24">
-        <v>2.2204461118001788e-14</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>1.2888453484504386e-07</v>
-      </c>
-      <c r="C25">
-        <v>0.99999987111544297</v>
-      </c>
-      <c r="D25">
-        <v>2.2204464758033764e-14</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>2.0319487451615197e-07</v>
-      </c>
-      <c r="C26">
-        <v>0.99999979680510331</v>
-      </c>
-      <c r="D26">
-        <v>2.2204620141510988e-14</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>4.5604215890599374e-08</v>
-      </c>
-      <c r="C27">
-        <v>0.99999995439576184</v>
-      </c>
       <c r="D27">
-        <v>2.220448499286173e-14</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>8.8833158841488074e-10</v>
+        <v>1.3150787938411695e-07</v>
       </c>
       <c r="C28">
-        <v>0.99999999911164617</v>
+        <v>0.99999986849209832</v>
       </c>
       <c r="D28">
-        <v>2.2204461768431365e-14</v>
+        <v>2.2204459519577585e-14</v>
       </c>
       <c r="E28">
         <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>1.6570773836128554e-05</v>
+        <v>3.7626433012725003e-11</v>
       </c>
       <c r="C29">
-        <v>0.9999834292261417</v>
+        <v>0.99999999996235134</v>
       </c>
       <c r="D29">
-        <v>2.220434426141037e-14</v>
+        <v>2.2204460492224433e-14</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B30">
-        <v>9.3738229127611509e-10</v>
+        <v>9.9902276699161922e-11</v>
       </c>
       <c r="C30">
-        <v>0.99999999906259551</v>
+        <v>0.99999999990007549</v>
       </c>
       <c r="D30">
-        <v>2.2204460486228752e-14</v>
+        <v>2.2204460500981559e-14</v>
       </c>
       <c r="E30">
         <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>8.9974905535527252e-07</v>
+        <v>1.9763576077830729e-12</v>
       </c>
       <c r="C31">
-        <v>0.99999910025092242</v>
+        <v>0.99999999999800149</v>
       </c>
       <c r="D31">
-        <v>2.2204454459768225e-14</v>
+        <v>2.2204460492488171e-14</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>5.2719267733101679e-07</v>
+        <v>1.950298202346676e-10</v>
       </c>
       <c r="C32">
-        <v>0.9999994728073005</v>
+        <v>0.99999999980494791</v>
       </c>
       <c r="D32">
-        <v>2.2204457976848758e-14</v>
+        <v>2.2204460491068729e-14</v>
       </c>
       <c r="E32">
         <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>5.5064765265379676e-08</v>
+        <v>4.4258736156994015e-05</v>
       </c>
       <c r="C33">
-        <v>0.9999999449352126</v>
+        <v>0.99995574126382081</v>
       </c>
       <c r="D33">
-        <v>2.2204460084958222e-14</v>
+        <v>2.2206983589842136e-14</v>
       </c>
       <c r="E33">
         <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B34">
-        <v>3.3896908275750345e-07</v>
+        <v>8.5086595107642892e-08</v>
       </c>
       <c r="C34">
-        <v>0.99999966103089499</v>
+        <v>0.99999991491338269</v>
       </c>
       <c r="D34">
-        <v>2.2204458285691869e-14</v>
+        <v>2.2204459870292995e-14</v>
       </c>
       <c r="E34">
         <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B35">
-        <v>2.6374970210921007e-07</v>
+        <v>1.4494205814112826e-07</v>
       </c>
       <c r="C35">
-        <v>0.99999973625027572</v>
+        <v>0.99999985505791966</v>
       </c>
       <c r="D35">
-        <v>2.2204544038476992e-14</v>
+        <v>2.2204459420142861e-14</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B36">
-        <v>3.3754639167842266e-07</v>
+        <v>0.00031312251197225668</v>
       </c>
       <c r="C36">
-        <v>0.99999966245358607</v>
+        <v>0.99968687748800567</v>
       </c>
       <c r="D36">
-        <v>2.2204637621219097e-14</v>
+        <v>2.2203352373406084e-14</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.00014990925844323279</v>
       </c>
       <c r="C37">
+        <v>0.99985009074153453</v>
+      </c>
+      <c r="D37">
+        <v>2.2203352066162451e-14</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>0.27445881125656857</v>
+      </c>
+      <c r="C38">
+        <v>0.45146441900185985</v>
+      </c>
+      <c r="D38">
+        <v>0.27407676974157147</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>1.9649532889983358e-07</v>
+      </c>
+      <c r="C39">
+        <v>0.9999998035046489</v>
+      </c>
+      <c r="D39">
+        <v>2.2204459094879694e-14</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>7.1136481643901417e-08</v>
-      </c>
-      <c r="C38">
-        <v>0.99999992886349609</v>
-      </c>
-      <c r="D38">
-        <v>2.2204459966150939e-14</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>6.1269618227448946e-13</v>
-      </c>
-      <c r="C39">
-        <v>0.99999999999936506</v>
-      </c>
-      <c r="D39">
-        <v>2.2204460492498268e-14</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1.0743727103753715e-10</v>
-      </c>
-      <c r="C40">
-        <v>0.99999999989254063</v>
-      </c>
       <c r="D40">
-        <v>2.2204460491957889e-14</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>2</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B41">
-        <v>6.9711063811026422e-08</v>
+        <v>3.1648992392740699e-07</v>
       </c>
       <c r="C41">
-        <v>0.9999999302889141</v>
+        <v>0.99999968351005386</v>
       </c>
       <c r="D41">
-        <v>2.2204459977014544e-14</v>
+        <v>2.2204520071604967e-14</v>
       </c>
       <c r="E41">
         <v>2</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B42">
-        <v>2.3692420234068843e-10</v>
+        <v>0.0013733413834593139</v>
       </c>
       <c r="C42">
-        <v>0.99999999976305365</v>
+        <v>0.99862665861651845</v>
       </c>
       <c r="D42">
-        <v>2.2204460505468502e-14</v>
+        <v>2.2198071851061511e-14</v>
       </c>
       <c r="E42">
         <v>2</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B43">
-        <v>5.3325877237946667e-13</v>
+        <v>3.7299390065894015e-12</v>
       </c>
       <c r="C43">
-        <v>0.99999999999944456</v>
+        <v>0.99999999999624789</v>
       </c>
       <c r="D43">
-        <v>2.2204460492498861e-14</v>
+        <v>2.2204460492475205e-14</v>
       </c>
       <c r="E43">
         <v>2</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
+      <c r="A44" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B44">
-        <v>1.675666534600532e-11</v>
+        <v>5.5154961687055634e-07</v>
       </c>
       <c r="C44">
-        <v>0.99999999998322109</v>
+        <v>0.99999944845036104</v>
       </c>
       <c r="D44">
-        <v>2.2204460492379526e-14</v>
+        <v>2.2204456411939468e-14</v>
       </c>
       <c r="E44">
         <v>2</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B45">
-        <v>5.017837606838562e-05</v>
+        <v>2.3208076995195093e-13</v>
       </c>
       <c r="C45">
-        <v>0.99994982162390933</v>
+        <v>0.99999999999974576</v>
       </c>
       <c r="D45">
-        <v>2.2207886750706388e-14</v>
+        <v>2.2204460492501174e-14</v>
       </c>
       <c r="E45">
         <v>2</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
+      <c r="A46" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B46">
-        <v>8.2291957232200526e-08</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>0.99999991770802055</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2.2204459889416851e-14</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <v>2</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
+      <c r="A47" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B47">
-        <v>3.5964127197797806e-07</v>
+        <v>1.8509901177005678e-06</v>
       </c>
       <c r="C47">
-        <v>0.99999964035870581</v>
+        <v>0.99999814900986006</v>
       </c>
       <c r="D47">
-        <v>2.2204457832107615e-14</v>
+        <v>2.2204446792567463e-14</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
+      <c r="A48" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B48">
-        <v>0.00045863890509570843</v>
+        <v>4.3793643146930918e-08</v>
       </c>
       <c r="C48">
-        <v>0.99954136109488201</v>
+        <v>0.99999995620633464</v>
       </c>
       <c r="D48">
-        <v>2.220210989904908e-14</v>
+        <v>2.2204460178743759e-14</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
+      <c r="A49" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B49">
-        <v>0.00035125159105745999</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0.99964874840892037</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>2.2204406107531376e-14</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>2</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
+      <c r="A50" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B50">
-        <v>9.7979522430502211e-05</v>
+        <v>1.7207385910147945e-06</v>
       </c>
       <c r="C50">
-        <v>0.99990202047754728</v>
+        <v>0.99999827926138674</v>
       </c>
       <c r="D50">
-        <v>2.2203736132187354e-14</v>
+        <v>2.220445012288481e-14</v>
       </c>
       <c r="E50">
         <v>2</v>
